--- a/LENS DATA.xlsx
+++ b/LENS DATA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>OFFICE</t>
+  </si>
+  <si>
+    <t>CARD</t>
+  </si>
+  <si>
+    <t>PRINTED CARD</t>
+  </si>
+  <si>
+    <t>SALVET</t>
+  </si>
+  <si>
+    <t>SPRAY</t>
   </si>
 </sst>
 </file>
@@ -302,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -362,11 +374,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,6 +423,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,42 +714,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" style="10" customWidth="1"/>
-    <col min="20" max="20" width="14.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="27.21875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="38.21875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="40.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="39.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,8 +833,20 @@
       <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -878,8 +925,20 @@
       <c r="Z2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -958,8 +1017,20 @@
       <c r="Z3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1038,8 +1109,20 @@
       <c r="Z4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1118,8 +1201,20 @@
       <c r="Z5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1198,8 +1293,20 @@
       <c r="Z6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1278,8 +1385,20 @@
       <c r="Z7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1358,8 +1477,20 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1438,8 +1569,20 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1518,8 +1661,20 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1598,8 +1753,20 @@
       <c r="Z11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1678,8 +1845,20 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1705,7 +1884,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <v>-6</v>
@@ -1758,8 +1937,20 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1838,8 +2029,20 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1918,8 +2121,20 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1945,7 +2160,7 @@
         <v>36</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>-6</v>
@@ -1998,8 +2213,20 @@
       <c r="Z16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2078,8 +2305,20 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2158,8 +2397,20 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2238,8 +2489,20 @@
       <c r="Z19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2318,8 +2581,20 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2398,8 +2673,20 @@
       <c r="Z21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2478,8 +2765,20 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2558,8 +2857,20 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2638,8 +2949,20 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2718,8 +3041,20 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2798,8 +3133,20 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2878,8 +3225,20 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2958,8 +3317,20 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3038,8 +3409,20 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3118,8 +3501,20 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA30" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3198,8 +3593,20 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA31" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3278,8 +3685,20 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA32" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3358,8 +3777,20 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA33" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3438,8 +3869,20 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA34" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3518,8 +3961,20 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3598,8 +4053,20 @@
       <c r="Z36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA36" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3678,8 +4145,20 @@
       <c r="Z37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA37" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3758,8 +4237,20 @@
       <c r="Z38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3838,8 +4329,20 @@
       <c r="Z39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3918,8 +4421,20 @@
       <c r="Z40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3998,8 +4513,20 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4078,8 +4605,20 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4158,8 +4697,20 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4238,8 +4789,20 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4318,8 +4881,20 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4398,8 +4973,20 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4478,8 +5065,20 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4558,8 +5157,20 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA48" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4638,8 +5249,20 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA49" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4718,8 +5341,20 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA50" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4798,8 +5433,20 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA51" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4878,8 +5525,20 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA52" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4958,8 +5617,20 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA53" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5038,8 +5709,20 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA54" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5118,8 +5801,20 @@
       <c r="Z55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA55" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5198,8 +5893,20 @@
       <c r="Z56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA56" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5278,8 +5985,20 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA57" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5358,8 +6077,20 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA58" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5438,8 +6169,20 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA59" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5518,8 +6261,20 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA60" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5598,8 +6353,20 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5678,8 +6445,20 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA62" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5758,8 +6537,20 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA63" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5838,8 +6629,20 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA64" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5916,6 +6719,18 @@
         <v>0</v>
       </c>
       <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="14">
         <v>0</v>
       </c>
     </row>
